--- a/Example/例程功能说明.xlsx
+++ b/Example/例程功能说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>文件夹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-Code Running in ITCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12-Specify Variable Position Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,7 +212,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本例程主要作用是，展示如何使用如何使用板载的USB接口发送数据</t>
+    <t>11-Code Running in ITCM Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-Fatfs Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何使用板载的USB接口发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何使用板载SD卡接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
@@ -584,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -595,21 +607,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -617,10 +629,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -628,10 +640,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -639,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -650,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -661,10 +673,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -672,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -683,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -694,76 +706,87 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
